--- a/Brevet blanc/Resources/Statistiques.xlsx
+++ b/Brevet blanc/Resources/Statistiques.xlsx
@@ -128,13 +128,25 @@
     <t>DNB N°2 - Moyennes du contrôle continu</t>
   </si>
   <si>
-    <t>DNB N°1 - Listing</t>
-  </si>
-  <si>
     <t>Elèves non reçus à l'examen</t>
   </si>
   <si>
     <t>Elèves reçus avec mention Très Bien</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DNB N°1 - Listing    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(* = note manquante)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -145,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +268,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1223,12 +1242,72 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1238,85 +1317,25 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2718,391 +2737,386 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
-    </row>
-    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="117"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="119"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="105"/>
       <c r="C4" s="105"/>
       <c r="D4" s="106"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="121"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="123"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
       <c r="D6" s="106"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="121"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="123"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="120"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="105"/>
       <c r="C8" s="105"/>
       <c r="D8" s="106"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="121"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="123"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="120"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="105"/>
       <c r="D10" s="106"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="121"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="123"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="120"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="105"/>
       <c r="C12" s="105"/>
       <c r="D12" s="106"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="121"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="123"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="120"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="105"/>
       <c r="C14" s="105"/>
       <c r="D14" s="106"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="121"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="123"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="120"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="105"/>
       <c r="C16" s="105"/>
       <c r="D16" s="106"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="121"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="123"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="120"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="105"/>
       <c r="C18" s="105"/>
       <c r="D18" s="106"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="121"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="123"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="120"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="105"/>
       <c r="C20" s="105"/>
       <c r="D20" s="106"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="121"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="123"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="105"/>
       <c r="C22" s="105"/>
       <c r="D22" s="106"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="121"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="123"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="120"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="105"/>
       <c r="C24" s="105"/>
       <c r="D24" s="106"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="121"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="123"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="120"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="105"/>
       <c r="C26" s="105"/>
       <c r="D26" s="106"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="121"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="123"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="115"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="120"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="105"/>
       <c r="C28" s="105"/>
       <c r="D28" s="106"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="121"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="123"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="120"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="105"/>
       <c r="C30" s="105"/>
       <c r="D30" s="106"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="121"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="103"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A21:D21"/>
@@ -3119,26 +3133,31 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Brevet blanc/Resources/Statistiques.xlsx
+++ b/Brevet blanc/Resources/Statistiques.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DNB" sheetId="2" r:id="rId1"/>
     <sheet name="Epreuves" sheetId="1" r:id="rId2"/>
     <sheet name="Controle continu" sheetId="3" r:id="rId3"/>
     <sheet name="Listing" sheetId="4" r:id="rId4"/>
+    <sheet name="Delta" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Delta!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Listing!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Non admis</t>
   </si>
@@ -147,6 +149,12 @@
       </rPr>
       <t>(* = note manquante)</t>
     </r>
+  </si>
+  <si>
+    <t>DNB N°1 - Delta</t>
+  </si>
+  <si>
+    <t>Elèves nécessitant discussion</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -3162,4 +3170,433 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="123"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="104"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="104"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="115"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="104"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="110"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="104"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="103"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Brevet blanc/Resources/Statistiques.xlsx
+++ b/Brevet blanc/Resources/Statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1250,6 +1250,84 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,84 +1344,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2756,375 +2756,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="123"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="109"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="103"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A21:D21"/>
@@ -3141,31 +3146,26 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3188,413 +3188,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="123"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="109"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="103"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:I31"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Brevet blanc/Resources/Statistiques.xlsx
+++ b/Brevet blanc/Resources/Statistiques.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1250,6 +1250,42 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,6 +1295,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,15 +1337,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,42 +1344,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2756,380 +2756,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="108"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="117"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="123"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="120"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="123"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="115"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="103"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A21:D21"/>
@@ -3146,26 +3141,31 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3188,413 +3188,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="108"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="117"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="109"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="123"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="120"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="123"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="115"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="109"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="103"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Brevet blanc/Resources/Statistiques.xlsx
+++ b/Brevet blanc/Resources/Statistiques.xlsx
@@ -154,7 +154,7 @@
     <t>DNB N°1 - Delta</t>
   </si>
   <si>
-    <t>Elèves nécessitant discussion</t>
+    <t>élèves nécessitant discussion</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3177,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Brevet blanc/Resources/Statistiques.xlsx
+++ b/Brevet blanc/Resources/Statistiques.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="DNB" sheetId="2" r:id="rId1"/>
     <sheet name="Epreuves" sheetId="1" r:id="rId2"/>
     <sheet name="Controle continu" sheetId="3" r:id="rId3"/>
-    <sheet name="Listing" sheetId="4" r:id="rId4"/>
-    <sheet name="Delta" sheetId="5" r:id="rId5"/>
+    <sheet name="ListingDnb1" sheetId="4" r:id="rId4"/>
+    <sheet name="DeltaDnb1" sheetId="5" r:id="rId5"/>
+    <sheet name="ListingDnb2" sheetId="6" r:id="rId6"/>
+    <sheet name="DeltaDnb2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Delta!$A$1:$I$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Listing!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">DeltaDnb1!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">DeltaDnb2!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ListingDnb1!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ListingDnb2!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Non admis</t>
   </si>
@@ -155,6 +159,24 @@
   </si>
   <si>
     <t>élèves nécessitant discussion</t>
+  </si>
+  <si>
+    <t>DNB N°2 - Delta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DNB N°2 - Listing    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(* = note manquante)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1250,6 +1272,84 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,84 +1366,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1628,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:J14"/>
     </sheetView>
   </sheetViews>
@@ -2756,375 +2778,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="123"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="109"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="103"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="A21:D21"/>
@@ -3141,31 +3168,26 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3176,7 +3198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
@@ -3188,413 +3210,1274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="123"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="109"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="109"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="109"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="109"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="110"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="103"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:I4"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="108"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="108"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="112"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="112"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="112"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="112"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="112"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="98"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:I13"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Brevet blanc/Resources/Statistiques.xlsx
+++ b/Brevet blanc/Resources/Statistiques.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Non admis</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Histoire et Géographie, E.M.C.</t>
-  </si>
-  <si>
-    <t>S.V.T</t>
   </si>
   <si>
     <t>Technologie</t>
@@ -177,6 +174,12 @@
       </rPr>
       <t>(* = note manquante)</t>
     </r>
+  </si>
+  <si>
+    <t>Physique-Chimie</t>
+  </si>
+  <si>
+    <t>SVT</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1680,7 @@
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -1718,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
@@ -1884,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2026,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -2079,16 +2082,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="I3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="J3" s="43" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -2214,7 +2217,7 @@
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="92"/>
       <c r="C14" s="92"/>
@@ -2246,16 +2249,16 @@
         <v>12</v>
       </c>
       <c r="G15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="I15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="J15" s="43" t="s">
         <v>16</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,7 +2422,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -2436,31 +2439,31 @@
         <v>7</v>
       </c>
       <c r="B3" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="D3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="E3" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="F3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="G3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="H3" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="I3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="71" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -2586,7 +2589,7 @@
     </row>
     <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="92"/>
       <c r="C14" s="92"/>
@@ -2603,31 +2606,31 @@
         <v>7</v>
       </c>
       <c r="B15" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="D15" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="E15" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="F15" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="G15" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="H15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="I15" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="69" t="s">
-        <v>29</v>
-      </c>
       <c r="J15" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2779,7 +2782,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -2792,13 +2795,13 @@
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
       <c r="D2" s="106"/>
       <c r="E2" s="107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -3211,7 +3214,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
@@ -3640,7 +3643,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -3653,13 +3656,13 @@
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
       <c r="D2" s="106"/>
       <c r="E2" s="107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -4042,13 +4045,13 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4072,7 +4075,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -4085,7 +4088,7 @@
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
